--- a/Excel/OutputExcel.xlsx
+++ b/Excel/OutputExcel.xlsx
@@ -20,44 +20,44 @@
     <t>Doctor Description</t>
   </si>
   <si>
-    <t>Dr. Akanksha Sachdeva</t>
-  </si>
-  <si>
-    <t>BDS, MDS - Prosthodontist And Crown Bridge
-Prosthodontist, Implantologist
-13 Years Experience Overall  (11 years as specialist)</t>
-  </si>
-  <si>
-    <t>Dr. Jayashankar B V</t>
-  </si>
-  <si>
-    <t>BDS, MDS - Prosthodontist And Crown Bridge
+    <t>Dr. Vathsala Naik</t>
+  </si>
+  <si>
+    <t>BDS, MDS - Oral Medicine and Radiology
+Dentist, Oral Medicine and Radiology
+41 Years Experience Overall  (29 years as specialist)</t>
+  </si>
+  <si>
+    <t>Dr. (Col) M. C. Sharma</t>
+  </si>
+  <si>
+    <t>BDS, MDS - Prosthodontics
+Prosthodontist, Implantologist, Dentist
+38 Years Experience Overall  (37 years as specialist)</t>
+  </si>
+  <si>
+    <t>Dr. Sanjay Mohanchandra</t>
+  </si>
+  <si>
+    <t>BDS, MDS - Oral &amp; Maxillofacial Surgery
+Dentist, Oral And MaxilloFacial Surgeon, Implantologist, Cosmetic/Aesthetic Dentist
+36 Years Experience Overall  (35 years as specialist)</t>
+  </si>
+  <si>
+    <t>Dr. Achuth M Baliga</t>
+  </si>
+  <si>
+    <t>BDS, FDSRCS - Fellowship in Dental Surgery, FFDRCSI
 Dentist
-13 Years Experience Overall</t>
-  </si>
-  <si>
-    <t>Dr. Shylesh Shetty</t>
-  </si>
-  <si>
-    <t>BDS, MDS - Conservative Dentistry
-Endodontist, Dentist
-25 Years Experience Overall  (24 years as specialist)</t>
-  </si>
-  <si>
-    <t>Dr. Dinesh Shetty</t>
-  </si>
-  <si>
-    <t>BDS
-Dentist, Dental Surgeon
-20 Years Experience Overall</t>
-  </si>
-  <si>
-    <t>Dr. Satish M S</t>
-  </si>
-  <si>
-    <t>BDS, MDS - Oral &amp; Maxillofacial Surgery, Fellowship in Cosmetic Surgery
-Oral And MaxilloFacial Surgeon, Craniofacial Surgeon, Cosmetologist
-20 Years Experience Overall  (19 years as specialist)</t>
+48 Years Experience Overall</t>
+  </si>
+  <si>
+    <t>Dr. K.A. Mohan</t>
+  </si>
+  <si>
+    <t>BDS, MDS - Orthodontics
+Orthodontist, Dentist, Dentofacial Orthopedist, Dental Surgeon
+55 Years Experience Overall  (47 years as specialist)</t>
   </si>
   <si>
     <t>Surgeries List</t>
